--- a/DataFiles/excel/Login/LoginDetails.xlsx
+++ b/DataFiles/excel/Login/LoginDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\SeleniumTestJavaArtifact2july\SeleniumTestJavaArtifact\DataFiles\excel\Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nasreen\HardDiskCopied\E\InelliJ\New AVT-Automation\New-AVT\DataFiles\excel\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F520C407-E928-49A4-B238-9E411BFD83CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A4B21-739D-468A-9CD3-04DA99D148B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,13 +101,13 @@
     <t>Nasreen.khan@ram.co.za</t>
   </si>
   <si>
-    <t>Nasreen@123</t>
-  </si>
-  <si>
     <t>Surekha@123123</t>
   </si>
   <si>
     <t>Nasreenk@winjit.com</t>
+  </si>
+  <si>
+    <t>Nasreen@1230</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +475,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -491,24 +491,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
